--- a/analysis/VAR2_v12.3/fevd_Field_Grade_Officers_Z.xlsx
+++ b/analysis/VAR2_v12.3/fevd_Field_Grade_Officers_Z.xlsx
@@ -1,37 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachh\Desktop\DoW_bureaucracy_study\analysis\VAR2_v12.3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8D259E-7CB0-40A9-B850-C7395638A4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Warrant_Officers_Z</t>
+  </si>
+  <si>
+    <t>Policy_Count_Log</t>
+  </si>
+  <si>
+    <t>Company_Grade_Officers_Z</t>
+  </si>
+  <si>
+    <t>Total_PAS_Z</t>
+  </si>
+  <si>
+    <t>FOIA_Simple_Days_Z</t>
+  </si>
+  <si>
+    <t>Junior_Enlisted_Z</t>
+  </si>
+  <si>
+    <t>Field_Grade_Officers_Z</t>
+  </si>
+  <si>
+    <t>Total_Civilians_Z</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +84,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,296 +408,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Period</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Warrant_Officers_Z</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Policy_Count_Log</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Company_Grade_Officers_Z</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PAS_Z</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FOIA_Simple_Days_Z</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Junior_Enlisted_Z</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Field_Grade_Officers_Z</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Civilians_Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.3009997838839583</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2605436108664548</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04024489769661289</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2614671785109028</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.01960390716510939</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.01144907418879909</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.30099978388395832</v>
+      </c>
+      <c r="C2">
+        <v>0.26054361086645478</v>
+      </c>
+      <c r="D2">
+        <v>4.0244897696612887E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.26146717851090279</v>
+      </c>
+      <c r="F2">
+        <v>1.9603907165109392E-2</v>
+      </c>
+      <c r="G2">
+        <v>1.1449074188799089E-2</v>
+      </c>
+      <c r="H2">
         <v>0.1038664730061082</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.001825074682054693</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>1.825074682054693E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.02963650453105824</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5154142452767194</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2083873053640496</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.04243123914770751</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B3">
+        <v>2.963650453105824E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.51541424527671942</v>
+      </c>
+      <c r="D3">
+        <v>0.20838730536404959</v>
+      </c>
+      <c r="E3">
+        <v>4.2431239147707508E-2</v>
+      </c>
+      <c r="F3">
         <v>0.1215423620869726</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.01044123681769521</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.07079667541104685</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.001350431364750383</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="G3">
+        <v>1.044123681769521E-2</v>
+      </c>
+      <c r="H3">
+        <v>7.0796675411046853E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.3504313647503829E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.3047545933358454</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02584166037728448</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.274062403314684</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B4">
+        <v>0.30475459333584543</v>
+      </c>
+      <c r="C4">
+        <v>2.584166037728448E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.27406240331468401</v>
+      </c>
+      <c r="E4">
         <v>0.1906080497142533</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.1234141474112491</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.02860569002206247</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.04845426025067563</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.004259195573945622</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="F4">
+        <v>0.12341414741124911</v>
+      </c>
+      <c r="G4">
+        <v>2.8605690022062469E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.8454260250675632E-2</v>
+      </c>
+      <c r="I4">
+        <v>4.2591955739456223E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.1771223385525555</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1458397575645688</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.07350440820746826</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B5">
+        <v>0.17712233855255549</v>
+      </c>
+      <c r="C5">
+        <v>0.14583975756456879</v>
+      </c>
+      <c r="D5">
+        <v>7.3504408207468258E-2</v>
+      </c>
+      <c r="E5">
         <v>0.3745321858432526</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.03122418838412826</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.006046089463261756</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1810137033330252</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.01071732865173944</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="F5">
+        <v>3.122418838412826E-2</v>
+      </c>
+      <c r="G5">
+        <v>6.0460894632617564E-3</v>
+      </c>
+      <c r="H5">
+        <v>0.18101370333302519</v>
+      </c>
+      <c r="I5">
+        <v>1.071732865173944E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.1065371021671282</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>0.10653710216712819</v>
+      </c>
+      <c r="C6">
         <v>0.2920312349068816</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.07370064423205623</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>7.3700644232056231E-2</v>
+      </c>
+      <c r="E6">
         <v>0.1234452994281449</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.3383753295248549</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.01570616618970559</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.04874513198732612</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.001459091563902448</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="F6">
+        <v>0.33837532952485488</v>
+      </c>
+      <c r="G6">
+        <v>1.5706166189705589E-2</v>
+      </c>
+      <c r="H6">
+        <v>4.8745131987326121E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.459091563902448E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.04173251839586475</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>4.1732518395864747E-2</v>
+      </c>
+      <c r="C7">
         <v>0.1332411922907851</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.118487915816485</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.3936471539402261</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.03740822624984195</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1735251235852852</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.09109389433646198</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.01086397538504983</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="E7">
+        <v>0.39364715394022609</v>
+      </c>
+      <c r="F7">
+        <v>3.7408226249841948E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.17352512358528521</v>
+      </c>
+      <c r="H7">
+        <v>9.1093894336461978E-2</v>
+      </c>
+      <c r="I7">
+        <v>1.086397538504983E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.1979077859211037</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.0114504776548408</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0779843929864055</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="C8">
+        <v>1.14504776548408E-2</v>
+      </c>
+      <c r="D8">
+        <v>7.7984392986405499E-2</v>
+      </c>
+      <c r="E8">
         <v>0.2106776543551856</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.1075857638837147</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.03614471038696418</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.3521692700304412</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.006079944781344122</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="G8">
+        <v>3.6144710386964179E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.35216927003044118</v>
+      </c>
+      <c r="I8">
+        <v>6.0799447813441217E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.06063047071138054</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2042303659088089</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.08089868999638067</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.05593095704126976</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0584350099686364</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.03932428354012185</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4314414929915276</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.06910872984187448</v>
+      <c r="B9">
+        <v>6.0630470711380537E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.20423036590880889</v>
+      </c>
+      <c r="D9">
+        <v>8.0898689996380668E-2</v>
+      </c>
+      <c r="E9">
+        <v>5.5930957041269762E-2</v>
+      </c>
+      <c r="F9">
+        <v>5.8435009968636403E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.9324283540121852E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.43144149299152762</v>
+      </c>
+      <c r="I9">
+        <v>6.9108729841874481E-2</v>
       </c>
     </row>
   </sheetData>
